--- a/doc/D3/Budget.xlsx
+++ b/doc/D3/Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuilleX7\Documents\GitHub\Acme-Planner\doc\D3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C03275-FA6C-495C-A98D-387135399FE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09CDFCC-6BFD-4C67-9664-BF5875C895ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6FE04B6-807F-41B9-BCEE-B9B32721F2E1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$F$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$F$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
   <si>
     <t>Budget</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Manager</t>
   </si>
   <si>
-    <t>Worker</t>
-  </si>
-  <si>
     <t>Cost/hour</t>
   </si>
   <si>
@@ -135,10 +132,10 @@
     <t>Real personnel costs</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>TBD</t>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Developer</t>
   </si>
 </sst>
 </file>
@@ -310,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -372,12 +369,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF81983B-6797-4DAB-9661-559EA0F2B9F0}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,7 +881,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -913,14 +904,14 @@
         <v>13</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -942,11 +933,11 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="17">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F11" s="13">
         <f t="shared" ref="F11" si="4">C11*E11</f>
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -961,7 +952,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="13">
         <v>25</v>
@@ -984,21 +975,21 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C13" s="13">
         <v>15</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F13" s="13">
-        <f>C13*E13</f>
-        <v>180</v>
+        <f t="shared" ref="F13" si="6">C13*E13</f>
+        <v>225</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1010,13 +1001,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C14" s="13">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="17">
@@ -1024,7 +1015,7 @@
       </c>
       <c r="F14" s="13">
         <f>C14*E14</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1036,21 +1027,21 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C15" s="13">
         <v>15</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F15" s="13">
         <f>C15*E15</f>
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1062,21 +1053,21 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C16" s="13">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="17">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F16" s="13">
         <f>C16*E16</f>
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1086,25 +1077,23 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="20">
-        <f>AVERAGE(C11:C16)</f>
-        <v>20</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="21">
-        <f>SUM(E11:E16)</f>
-        <v>52</v>
-      </c>
-      <c r="F17" s="20">
-        <f>SUM(F11:F16)</f>
-        <v>940</v>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="13">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="13">
+        <f>C17*E17</f>
+        <v>30</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1115,14 +1104,23 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="9"/>
+      <c r="C18" s="13">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="17">
+        <v>15</v>
+      </c>
+      <c r="F18" s="13">
+        <f>C18*E18</f>
+        <v>225</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1132,21 +1130,22 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>28</v>
+      <c r="A19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="13">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="17">
+        <v>2</v>
+      </c>
+      <c r="F19" s="13">
+        <f>C19*E19</f>
+        <v>30</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1158,13 +1157,22 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="13">
+        <v>15</v>
+      </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="13"/>
+      <c r="E20" s="17">
+        <v>15</v>
+      </c>
+      <c r="F20" s="13">
+        <f>C20*E20</f>
+        <v>225</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1173,15 +1181,26 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="13"/>
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="20">
+        <f>AVERAGE(C11:C19)</f>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="21">
+        <f>SUM(E11:E19)</f>
+        <v>57</v>
+      </c>
+      <c r="F21" s="20">
+        <f>SUM(F11:F19)</f>
+        <v>915</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1191,14 +1210,14 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="13"/>
+      <c r="A22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="9"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1208,14 +1227,22 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="13"/>
+      <c r="A23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1226,12 +1253,18 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="13">
+        <v>25</v>
+      </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="23"/>
+      <c r="E24" s="17">
+        <v>2</v>
+      </c>
       <c r="F24" s="13"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1243,12 +1276,18 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="13">
+        <v>25</v>
+      </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="24"/>
+      <c r="E25" s="17">
+        <v>2</v>
+      </c>
       <c r="F25" s="13"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1260,12 +1299,18 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="13">
+        <v>15</v>
+      </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="23"/>
+      <c r="E26" s="17">
+        <v>15</v>
+      </c>
       <c r="F26" s="13"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1276,22 +1321,135 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19" t="s">
+      <c r="A27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="13">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="17">
+        <v>2</v>
+      </c>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="13">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="17">
+        <v>15</v>
+      </c>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="13">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="17">
+        <v>2</v>
+      </c>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="13">
+        <v>15</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="17">
+        <v>2</v>
+      </c>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="13">
+        <v>15</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="17">
+        <v>15</v>
+      </c>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="13">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="17">
+        <v>2</v>
+      </c>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="13">
+        <v>15</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="17">
+        <v>15</v>
+      </c>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="20">
+        <f>AVERAGE(C24:C33)</f>
+        <v>18</v>
+      </c>
+      <c r="D34" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="21">
-        <f>SUM(E20:E26)</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="20">
-        <f>SUM(F20:F26)</f>
+      <c r="E34" s="21">
+        <f>SUM(E24:E33)</f>
+        <v>72</v>
+      </c>
+      <c r="F34" s="20">
+        <f>SUM(F24:F33)</f>
         <v>0</v>
       </c>
     </row>

--- a/doc/D3/Budget.xlsx
+++ b/doc/D3/Budget.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuilleX7\Documents\GitHub\Acme-Planner\doc\D3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacoz\Workspace-21.1\Projects\Acme-Planner\doc\D3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09CDFCC-6BFD-4C67-9664-BF5875C895ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E0D331-DB6B-4CA7-93FC-0AC41976589D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6FE04B6-807F-41B9-BCEE-B9B32721F2E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E6FE04B6-807F-41B9-BCEE-B9B32721F2E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$F$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$F$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
   <si>
     <t>Budget</t>
   </si>
@@ -683,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF81983B-6797-4DAB-9661-559EA0F2B9F0}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,7 +936,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="13">
-        <f t="shared" ref="F11" si="4">C11*E11</f>
+        <f>C11*E11</f>
         <v>50</v>
       </c>
       <c r="H11" s="1"/>
@@ -962,7 +962,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="13">
-        <f t="shared" ref="F12" si="5">C12*E12</f>
+        <f t="shared" ref="F12" si="4">C12*E12</f>
         <v>50</v>
       </c>
       <c r="H12" s="1"/>
@@ -988,7 +988,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="13">
-        <f t="shared" ref="F13" si="6">C13*E13</f>
+        <f t="shared" ref="F13" si="5">C13*E13</f>
         <v>225</v>
       </c>
       <c r="H13" s="1"/>
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="13">
-        <f>C14*E14</f>
+        <f t="shared" ref="F14:F20" si="6">C14*E14</f>
         <v>30</v>
       </c>
       <c r="H14" s="1"/>
@@ -1040,7 +1040,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="13">
-        <f>C15*E15</f>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
       <c r="H15" s="1"/>
@@ -1066,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="13">
-        <f>C16*E16</f>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="H16" s="1"/>
@@ -1092,7 +1092,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="13">
-        <f>C17*E17</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="H17" s="1"/>
@@ -1118,7 +1118,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="13">
-        <f>C18*E18</f>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
       <c r="H18" s="1"/>
@@ -1144,7 +1144,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="13">
-        <f>C19*E19</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="H19" s="1"/>
@@ -1170,7 +1170,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="13">
-        <f>C20*E20</f>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
       <c r="H20" s="1"/>
@@ -1263,9 +1263,12 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="17">
-        <v>2</v>
-      </c>
-      <c r="F24" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="13">
+        <f>C24*E24</f>
+        <v>25</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1286,9 +1289,12 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="17">
-        <v>2</v>
-      </c>
-      <c r="F25" s="13"/>
+        <v>0.83333330000000005</v>
+      </c>
+      <c r="F25" s="13">
+        <f t="shared" ref="F25:F34" si="7">C25*E25</f>
+        <v>20.833332500000001</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1302,16 +1308,19 @@
         <v>15</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="13">
         <v>15</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="17">
-        <v>15</v>
-      </c>
-      <c r="F26" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="F26" s="13">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1322,135 +1331,182 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="13">
         <v>15</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="17">
-        <v>2</v>
-      </c>
-      <c r="F27" s="13"/>
+        <v>3.5</v>
+      </c>
+      <c r="F27" s="13">
+        <f t="shared" si="7"/>
+        <v>52.5</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" s="13">
         <v>15</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="17">
-        <v>15</v>
-      </c>
-      <c r="F28" s="13"/>
+        <v>1.5</v>
+      </c>
+      <c r="F28" s="13">
+        <f t="shared" si="7"/>
+        <v>22.5</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C29" s="13">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="17">
-        <v>2</v>
-      </c>
-      <c r="F29" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="F29" s="13">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C30" s="13">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="17">
-        <v>2</v>
-      </c>
-      <c r="F30" s="13"/>
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="F30" s="13">
+        <f t="shared" si="7"/>
+        <v>20.8325</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31" s="13">
         <v>15</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="17">
-        <v>15</v>
-      </c>
-      <c r="F31" s="13"/>
+        <v>3.8333330000000001</v>
+      </c>
+      <c r="F31" s="13">
+        <f t="shared" si="7"/>
+        <v>57.499994999999998</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="13">
         <v>15</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="17">
-        <v>2</v>
-      </c>
-      <c r="F32" s="13"/>
+        <v>3.5333299999999999</v>
+      </c>
+      <c r="F32" s="13">
+        <f t="shared" si="7"/>
+        <v>52.999949999999998</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" s="13">
         <v>15</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="17">
-        <v>15</v>
-      </c>
-      <c r="F33" s="13"/>
+        <v>3.2</v>
+      </c>
+      <c r="F33" s="13">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19" t="s">
+      <c r="A34" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="13">
+        <v>15</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="17">
+        <v>4.5332999999999997</v>
+      </c>
+      <c r="F34" s="13">
+        <f t="shared" si="7"/>
+        <v>67.999499999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="20">
-        <f>AVERAGE(C24:C33)</f>
-        <v>18</v>
-      </c>
-      <c r="D34" s="19" t="s">
+      <c r="C35" s="20">
+        <f>AVERAGE(C24:C34)</f>
+        <v>17.727272727272727</v>
+      </c>
+      <c r="D35" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="21">
-        <f>SUM(E24:E33)</f>
-        <v>72</v>
-      </c>
-      <c r="F34" s="20">
-        <f>SUM(F24:F33)</f>
-        <v>0</v>
+      <c r="E35" s="21">
+        <f>SUM(E24:E34)</f>
+        <v>33.766596299999996</v>
+      </c>
+      <c r="F35" s="20">
+        <f>SUM(F24:F34)</f>
+        <v>533.1652775</v>
       </c>
     </row>
   </sheetData>
